--- a/Definicion y administracion de requerimientos de software/bitacoras/PDbitacoraLE.xlsx
+++ b/Definicion y administracion de requerimientos de software/bitacoras/PDbitacoraLE.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagogaleano/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\DanielPena\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19460" yWindow="1460" windowWidth="17200" windowHeight="18800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
@@ -563,56 +563,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,7 +686,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -981,42 +981,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="2"/>
-    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="2"/>
-    <col min="4" max="4" width="11.5" style="45"/>
-    <col min="5" max="6" width="18.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="47.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="52.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="2"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="11.42578125" style="33"/>
+    <col min="5" max="6" width="18.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="47.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="52.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1026,18 +1026,18 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="34" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="6"/>
@@ -1046,73 +1046,73 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
-      <c r="D11" s="47"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="34" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="35" t="s">
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="36"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="34"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="42"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="40"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
-        <v>43140</v>
+        <v>43148</v>
       </c>
       <c r="C16" s="18">
         <v>0.67361111111111116</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="36" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="20">
@@ -1134,14 +1134,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
-        <v>43142</v>
+        <v>43148</v>
       </c>
       <c r="C17" s="18">
         <v>0.69097222222222221</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="36" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="20">
@@ -1163,14 +1163,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="19">
-        <v>43142</v>
+        <v>43151</v>
       </c>
       <c r="C18" s="18">
         <v>0.73958333333333337</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="36" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="20">
@@ -1192,14 +1192,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="19">
-        <v>43142</v>
+        <v>43151</v>
       </c>
       <c r="C19" s="18">
         <v>0.76736111111111116</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="36" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="20">
@@ -1221,17 +1221,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="19">
-        <v>43142</v>
+        <v>43151</v>
       </c>
       <c r="C20" s="18">
         <v>0.77777777777777779</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="20">
@@ -1253,14 +1253,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" s="19">
-        <v>43143</v>
+        <v>43151</v>
       </c>
       <c r="C21" s="26">
         <v>0.78472222222222221</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="36" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="26">
@@ -1282,14 +1282,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" s="19">
-        <v>43143</v>
+        <v>43152</v>
       </c>
       <c r="C22" s="18">
         <v>0.81944444444444453</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="36" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="20">
@@ -1311,14 +1311,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="19">
-        <v>43143</v>
+        <v>43152</v>
       </c>
       <c r="C23" s="18">
         <v>0.86111111111111116</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E23" s="20">
@@ -1340,10 +1340,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="51"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="27"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
@@ -1351,10 +1351,10 @@
       <c r="I24" s="28"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="51"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="7"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -1362,10 +1362,10 @@
       <c r="I25" s="16"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="51"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="7"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -1373,10 +1373,10 @@
       <c r="I26" s="16"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="51"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="7"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -1384,10 +1384,10 @@
       <c r="I27" s="16"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="51"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="7"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -1395,10 +1395,10 @@
       <c r="I28" s="16"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="51"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="7"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -1406,10 +1406,10 @@
       <c r="I29" s="16"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="51"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="7"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -1417,10 +1417,10 @@
       <c r="I30" s="16"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="51"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="7"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -1428,10 +1428,10 @@
       <c r="I31" s="16"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="51"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="7"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -1439,10 +1439,10 @@
       <c r="I32" s="16"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="51"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="7"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -1450,10 +1450,10 @@
       <c r="I33" s="16"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="51"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="7"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -1461,10 +1461,10 @@
       <c r="I34" s="16"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="51"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="7"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -1472,10 +1472,10 @@
       <c r="I35" s="16"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="51"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="7"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -1483,10 +1483,10 @@
       <c r="I36" s="16"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="51"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="7"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -1494,10 +1494,10 @@
       <c r="I37" s="16"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="51"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="7"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -1505,10 +1505,10 @@
       <c r="I38" s="16"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="51"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="7"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -1516,10 +1516,10 @@
       <c r="I39" s="16"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="51"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="7"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -1527,10 +1527,10 @@
       <c r="I40" s="16"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="51"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="7"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -1538,10 +1538,10 @@
       <c r="I41" s="16"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="51"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="7"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
@@ -1549,10 +1549,10 @@
       <c r="I42" s="16"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="12"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="51"/>
+      <c r="D43" s="37"/>
       <c r="E43" s="7"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
@@ -1560,10 +1560,10 @@
       <c r="I43" s="16"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="12"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="51"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="7"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
@@ -1571,10 +1571,10 @@
       <c r="I44" s="16"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="12"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="51"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="7"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
@@ -1582,10 +1582,10 @@
       <c r="I45" s="16"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="12"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="51"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="7"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
@@ -1593,10 +1593,10 @@
       <c r="I46" s="16"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="51"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="7"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -1604,10 +1604,10 @@
       <c r="I47" s="16"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="51"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="7"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
@@ -1615,10 +1615,10 @@
       <c r="I48" s="16"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="51"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="7"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
@@ -1626,10 +1626,10 @@
       <c r="I49" s="16"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="12"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="51"/>
+      <c r="D50" s="37"/>
       <c r="E50" s="7"/>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
@@ -1637,10 +1637,10 @@
       <c r="I50" s="16"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="12"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="51"/>
+      <c r="D51" s="37"/>
       <c r="E51" s="7"/>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
@@ -1648,10 +1648,10 @@
       <c r="I51" s="16"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="12"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="51"/>
+      <c r="D52" s="37"/>
       <c r="E52" s="7"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
@@ -1659,10 +1659,10 @@
       <c r="I52" s="16"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="12"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="51"/>
+      <c r="D53" s="37"/>
       <c r="E53" s="7"/>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
@@ -1670,10 +1670,10 @@
       <c r="I53" s="16"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
       <c r="C54" s="7"/>
-      <c r="D54" s="51"/>
+      <c r="D54" s="37"/>
       <c r="E54" s="7"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
@@ -1681,10 +1681,10 @@
       <c r="I54" s="16"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
       <c r="C55" s="7"/>
-      <c r="D55" s="51"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="7"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
@@ -1692,10 +1692,10 @@
       <c r="I55" s="16"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="13"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="52"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="9"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
@@ -1722,182 +1722,182 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="43" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="43" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="43" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>5</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1925,7 +1925,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -1933,7 +1933,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1941,7 +1941,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1949,7 +1949,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -1957,7 +1957,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -1965,7 +1965,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -1973,7 +1973,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1981,7 +1981,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -1989,7 +1989,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1997,7 +1997,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -2005,7 +2005,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -2013,7 +2013,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -2021,139 +2021,139 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="43" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="43" t="s">
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="43" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="44" t="s">
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44" t="s">
+      <c r="C49" s="52"/>
+      <c r="D49" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
       <c r="G49" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -2161,7 +2161,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -2169,7 +2169,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -2177,7 +2177,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -2185,7 +2185,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -2193,7 +2193,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
